--- a/sofaplayer/Premier_League/Liverpool_stats.xlsx
+++ b/sofaplayer/Premier_League/Liverpool_stats.xlsx
@@ -3164,47 +3164,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>895324</v>
+        <v>869856</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7</v>
+        <v>7.1541666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>1735</v>
+        <v>2153</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1421</v>
+        <v>3.5599</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>538.25</v>
       </c>
       <c r="M8" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8.163265306122399</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3213,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -3228,277 +3228,277 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.14754945</v>
+        <v>3.7556282</v>
       </c>
       <c r="AB8" t="n">
-        <v>1241</v>
+        <v>2018</v>
       </c>
       <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1292</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>87.53387533875301</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1476</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>502</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>790</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>458</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>61.313868613139</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>32.575757575758</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>124</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV8" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>834</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>86.604361370717</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>963</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>280</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>554</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>48.484848484848</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>47.368421052632</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>61.764705882353</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>50.331125827815</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>47.826086956522</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>346</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>184</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>12</v>
       </c>
-      <c r="AP8" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="CA8" t="n">
+        <v>37</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>93</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>51</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="CK8" t="n">
         <v>6</v>
       </c>
-      <c r="AR8" t="n">
-        <v>69</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>30</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>44</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>34</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>132</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>87</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>137</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>72.222222222222</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>560</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>916</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
         <v>7</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>38.888888888889</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>44.871794871795</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>60</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>46.875</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>35.714285714286</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>197</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>25</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>129</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>11</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>18</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>18</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>44</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>5</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>18</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>19</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>86</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>18</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>66</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>48.387096774194</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>312</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>651</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>5</v>
-      </c>
       <c r="DJ8" t="n">
-        <v>2134451</v>
+        <v>2134446</v>
       </c>
       <c r="DK8" t="inlineStr">
         <is>
@@ -3520,47 +3520,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>869856</v>
+        <v>895324</v>
       </c>
       <c r="E9" t="n">
-        <v>7.1541666666667</v>
+        <v>6.7</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>2153</v>
+        <v>1735</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5599</v>
+        <v>2.1421</v>
       </c>
       <c r="L9" t="n">
-        <v>538.25</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>8.163265306122399</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3584,277 +3584,277 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.7556282</v>
+        <v>1.14754945</v>
       </c>
       <c r="AB9" t="n">
-        <v>2018</v>
+        <v>1241</v>
       </c>
       <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>834</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>86.604361370717</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>963</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>280</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>554</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>48.484848484848</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>47.368421052632</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>69</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>38.888888888889</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>44.871794871795</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>46.875</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>35.714285714286</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>197</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
         <v>5</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="BO9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>129</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC9" t="n">
         <v>44</v>
       </c>
-      <c r="AE9" t="n">
-        <v>1292</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>87.53387533875301</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1476</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>502</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>790</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>458</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>84</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>61.313868613139</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>43</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>32.575757575758</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="CD9" t="n">
         <v>15</v>
       </c>
-      <c r="AP9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>124</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AU9" t="n">
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>19</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>86</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>66</v>
+      </c>
+      <c r="DA9" t="n">
         <v>15</v>
       </c>
-      <c r="AV9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>61.764705882353</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>87</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>76</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>50.331125827815</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>47.826086956522</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>346</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" t="n">
+      <c r="DB9" t="n">
+        <v>48.387096774194</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>312</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>651</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>5</v>
       </c>
-      <c r="BL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>171.7</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>184</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>10</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>37</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>16</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>93</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>51</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>28</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>30</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>44</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>34</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>132</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>87</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>12</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>137</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>72.222222222222</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>560</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>916</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>7</v>
-      </c>
       <c r="DJ9" t="n">
-        <v>2134446</v>
+        <v>2134451</v>
       </c>
       <c r="DK9" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>2340</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
